--- a/Database/DataBase.xlsx
+++ b/Database/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tatvasoft Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C2B5F5-2584-4259-AA30-FFAF319A5976}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33811AFD-CADF-41E5-9395-4200C057346F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="24" xr2:uid="{7D5CAFDD-3082-4A9E-BA90-A89ABFA73424}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="132">
   <si>
     <t>Notes Market Place</t>
   </si>
@@ -420,6 +420,9 @@
   </si>
   <si>
     <t>DefaultProfilePicture</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -522,17 +525,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -540,11 +543,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -863,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE93447-7304-498D-B996-051B3FA9F42B}">
-  <dimension ref="A1:E210"/>
+  <dimension ref="A1:E214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E194" sqref="E194"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,45 +882,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -1132,36 +1135,36 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -1299,27 +1302,27 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
@@ -1613,27 +1616,27 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
@@ -1790,27 +1793,27 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
@@ -1859,89 +1862,96 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="1">
+        <v>100</v>
+      </c>
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>15</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>23</v>
       </c>
-      <c r="D84" t="s">
-        <v>25</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B85" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" t="s">
-        <v>25</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>17</v>
-      </c>
-      <c r="B86" t="s">
-        <v>23</v>
-      </c>
-      <c r="D86" t="s">
-        <v>25</v>
-      </c>
-      <c r="E86" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
         <v>25</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>19</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>22</v>
       </c>
-      <c r="D88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="D89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
@@ -1951,39 +1961,32 @@
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>71</v>
-      </c>
-      <c r="B94" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
@@ -1992,135 +1995,135 @@
         <v>24</v>
       </c>
       <c r="E95" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
-      </c>
-      <c r="C96" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
+      </c>
+      <c r="E96" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C97" s="1">
+        <v>100</v>
       </c>
       <c r="D97" t="s">
         <v>24</v>
-      </c>
-      <c r="E97" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="B98" t="s">
+        <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E98" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E99" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>78</v>
-      </c>
-      <c r="B100" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E100" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
       </c>
       <c r="D101" t="s">
         <v>25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="B102" t="s">
-        <v>21</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D103" t="s">
-        <v>25</v>
-      </c>
-      <c r="E103" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B104" t="s">
-        <v>21</v>
-      </c>
-      <c r="C104" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
         <v>25</v>
+      </c>
+      <c r="E104" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B105" t="s">
         <v>21</v>
       </c>
       <c r="C105" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D105" t="s">
         <v>25</v>
@@ -2128,7 +2131,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B106" t="s">
         <v>21</v>
@@ -2142,7 +2145,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B107" t="s">
         <v>21</v>
@@ -2156,21 +2159,24 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B108" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C108" s="1">
+        <v>100</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D109" t="s">
         <v>24</v>
@@ -2178,128 +2184,132 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="B110" t="s">
+        <v>20</v>
       </c>
       <c r="D110" t="s">
         <v>24</v>
-      </c>
-      <c r="E110" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>88</v>
-      </c>
-      <c r="B111" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="D111" t="s">
         <v>24</v>
       </c>
       <c r="E111" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B112" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D112" t="s">
         <v>24</v>
       </c>
       <c r="E112" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>90</v>
+      </c>
+      <c r="B113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>15</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>23</v>
       </c>
-      <c r="D113" t="s">
-        <v>25</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="D114" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B114" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" t="s">
-        <v>25</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>17</v>
-      </c>
-      <c r="B115" t="s">
-        <v>23</v>
-      </c>
-      <c r="D115" t="s">
-        <v>25</v>
-      </c>
-      <c r="E115" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D116" t="s">
         <v>25</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>19</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>22</v>
       </c>
-      <c r="D117" t="s">
-        <v>24</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="D118" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="7" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
@@ -2309,59 +2319,52 @@
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="13"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="E123" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>73</v>
-      </c>
-      <c r="B123" t="s">
-        <v>20</v>
-      </c>
-      <c r="D123" t="s">
-        <v>24</v>
-      </c>
-      <c r="E123" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B124" t="s">
-        <v>21</v>
-      </c>
-      <c r="C124" s="1">
         <v>20</v>
       </c>
       <c r="D124" t="s">
         <v>24</v>
+      </c>
+      <c r="E124" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B125" t="s">
         <v>21</v>
       </c>
       <c r="C125" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D125" t="s">
         <v>24</v>
@@ -2369,89 +2372,96 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>38</v>
+      </c>
+      <c r="B126" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" s="1">
+        <v>200</v>
+      </c>
+      <c r="D126" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>15</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>23</v>
       </c>
-      <c r="D126" t="s">
-        <v>25</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="D127" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="5" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B127" t="s">
-        <v>20</v>
-      </c>
-      <c r="D127" t="s">
-        <v>25</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>17</v>
-      </c>
-      <c r="B128" t="s">
-        <v>23</v>
-      </c>
-      <c r="D128" t="s">
-        <v>25</v>
-      </c>
-      <c r="E128" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D129" t="s">
         <v>25</v>
       </c>
       <c r="E129" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B130" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>19</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>22</v>
       </c>
-      <c r="D130" t="s">
-        <v>24</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="D131" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="7" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="8"/>
@@ -2461,59 +2471,52 @@
       <c r="E134" s="8"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="13"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B136" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C136" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E135" s="4" t="s">
+      <c r="E136" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>78</v>
-      </c>
-      <c r="B136" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" t="s">
-        <v>24</v>
-      </c>
-      <c r="E136" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B137" t="s">
-        <v>21</v>
-      </c>
-      <c r="C137" s="1">
         <v>20</v>
       </c>
       <c r="D137" t="s">
         <v>24</v>
+      </c>
+      <c r="E137" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B138" t="s">
         <v>21</v>
       </c>
       <c r="C138" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s">
         <v>24</v>
@@ -2521,89 +2524,96 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>38</v>
+      </c>
+      <c r="B139" t="s">
+        <v>21</v>
+      </c>
+      <c r="C139" s="1">
+        <v>200</v>
+      </c>
+      <c r="D139" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>15</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>23</v>
       </c>
-      <c r="D139" t="s">
-        <v>25</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="D140" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="5" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B140" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" t="s">
-        <v>25</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="B141" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" t="s">
+        <v>25</v>
+      </c>
+      <c r="E141" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>17</v>
-      </c>
-      <c r="B141" t="s">
-        <v>23</v>
-      </c>
-      <c r="D141" t="s">
-        <v>25</v>
-      </c>
-      <c r="E141" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D142" t="s">
         <v>25</v>
       </c>
       <c r="E142" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" t="s">
+        <v>25</v>
+      </c>
+      <c r="E143" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>19</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>22</v>
       </c>
-      <c r="D143" t="s">
-        <v>24</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="D144" t="s">
+        <v>24</v>
+      </c>
+      <c r="E144" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="7" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="8"/>
@@ -2613,39 +2623,32 @@
       <c r="E147" s="8"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="13"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B149" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C149" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E148" s="4" t="s">
+      <c r="E149" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>48</v>
-      </c>
-      <c r="B149" t="s">
-        <v>20</v>
-      </c>
-      <c r="D149" t="s">
-        <v>24</v>
-      </c>
-      <c r="E149" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B150" t="s">
         <v>20</v>
@@ -2654,12 +2657,12 @@
         <v>24</v>
       </c>
       <c r="E150" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B151" t="s">
         <v>20</v>
@@ -2668,52 +2671,59 @@
         <v>24</v>
       </c>
       <c r="E151" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B152" t="s">
-        <v>21</v>
-      </c>
-      <c r="C152" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D152" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="E152" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>99</v>
+      </c>
+      <c r="B153" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153" s="1">
+        <v>100</v>
+      </c>
+      <c r="D153" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>15</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>23</v>
       </c>
-      <c r="D153" t="s">
-        <v>25</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="D154" t="s">
+        <v>25</v>
+      </c>
+      <c r="E154" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="7" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B155" s="7"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="8"/>
@@ -2723,39 +2733,32 @@
       <c r="E157" s="8"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="13"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C159" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D159" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E158" s="4" t="s">
+      <c r="E159" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>48</v>
-      </c>
-      <c r="B159" t="s">
-        <v>20</v>
-      </c>
-      <c r="D159" t="s">
-        <v>24</v>
-      </c>
-      <c r="E159" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B160" t="s">
         <v>20</v>
@@ -2764,12 +2767,12 @@
         <v>24</v>
       </c>
       <c r="E160" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B161" t="s">
         <v>20</v>
@@ -2778,113 +2781,113 @@
         <v>24</v>
       </c>
       <c r="E161" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B162" t="s">
         <v>20</v>
       </c>
-      <c r="C162" s="1">
-        <v>1</v>
-      </c>
       <c r="D162" t="s">
         <v>24</v>
       </c>
       <c r="E162" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B163" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C163" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="E163" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>99</v>
+      </c>
+      <c r="B164" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164" s="1">
+        <v>100</v>
+      </c>
+      <c r="D164" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>15</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>23</v>
       </c>
-      <c r="D164" t="s">
-        <v>25</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="D165" t="s">
+        <v>25</v>
+      </c>
+      <c r="E165" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="7" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B166" s="7"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="7"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="6" t="s">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B168" s="6"/>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="4" t="s">
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C170" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D170" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E169" s="4" t="s">
+      <c r="E170" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>107</v>
-      </c>
-      <c r="B170" t="s">
-        <v>20</v>
-      </c>
-      <c r="D170" t="s">
-        <v>24</v>
-      </c>
-      <c r="E170" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B171" t="s">
         <v>20</v>
@@ -2893,12 +2896,12 @@
         <v>24</v>
       </c>
       <c r="E171" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="B172" t="s">
         <v>20</v>
@@ -2907,441 +2910,514 @@
         <v>24</v>
       </c>
       <c r="E172" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B173" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D173" t="s">
         <v>24</v>
-      </c>
-      <c r="E173" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="B174" t="s">
         <v>21</v>
       </c>
       <c r="D174" t="s">
         <v>24</v>
-      </c>
-      <c r="E174" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="B175" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D175" t="s">
-        <v>25</v>
-      </c>
-      <c r="E175" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
+        <v>108</v>
+      </c>
+      <c r="B176" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176" t="s">
+        <v>24</v>
+      </c>
+      <c r="E176" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>110</v>
+      </c>
+      <c r="B177" t="s">
+        <v>20</v>
+      </c>
+      <c r="D177" t="s">
+        <v>24</v>
+      </c>
+      <c r="E177" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>88</v>
+      </c>
+      <c r="B178" t="s">
+        <v>21</v>
+      </c>
+      <c r="D178" t="s">
+        <v>24</v>
+      </c>
+      <c r="E178" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" t="s">
+        <v>23</v>
+      </c>
+      <c r="D179" t="s">
+        <v>25</v>
+      </c>
+      <c r="E179" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>17</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B180" t="s">
         <v>23</v>
       </c>
-      <c r="D176" t="s">
-        <v>25</v>
-      </c>
-      <c r="E176" t="s">
+      <c r="D180" t="s">
+        <v>25</v>
+      </c>
+      <c r="E180" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="7" t="s">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B178" s="7"/>
-      <c r="C178" s="7"/>
-      <c r="D178" s="7"/>
-      <c r="E178" s="7"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="7"/>
-      <c r="B179" s="7"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="7"/>
-      <c r="E179" s="7"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="6"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="4" t="s">
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="8"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="9"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B185" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C185" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D185" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E181" s="4" t="s">
+      <c r="E185" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>48</v>
-      </c>
-      <c r="B182" t="s">
-        <v>20</v>
-      </c>
-      <c r="D182" t="s">
-        <v>24</v>
-      </c>
-      <c r="E182" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>116</v>
-      </c>
-      <c r="B183" t="s">
-        <v>21</v>
-      </c>
-      <c r="C183" s="1">
-        <v>50</v>
-      </c>
-      <c r="D183" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>12</v>
-      </c>
-      <c r="B184" t="s">
-        <v>21</v>
-      </c>
-      <c r="C184" s="1">
-        <v>50</v>
-      </c>
-      <c r="D184" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>117</v>
-      </c>
-      <c r="B185" t="s">
-        <v>21</v>
-      </c>
-      <c r="C185" s="1">
-        <v>100</v>
-      </c>
-      <c r="D185" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="B186" t="s">
-        <v>21</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D186" t="s">
         <v>24</v>
+      </c>
+      <c r="E186" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>116</v>
+      </c>
+      <c r="B187" t="s">
+        <v>21</v>
+      </c>
+      <c r="C187" s="1">
+        <v>50</v>
+      </c>
+      <c r="D187" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" t="s">
+        <v>21</v>
+      </c>
+      <c r="C188" s="1">
+        <v>50</v>
+      </c>
+      <c r="D188" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>117</v>
+      </c>
+      <c r="B189" t="s">
+        <v>21</v>
+      </c>
+      <c r="C189" s="1">
+        <v>100</v>
+      </c>
+      <c r="D189" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>99</v>
+      </c>
+      <c r="B190" t="s">
+        <v>21</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D190" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>15</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B191" t="s">
         <v>23</v>
       </c>
-      <c r="D187" t="s">
-        <v>25</v>
-      </c>
-      <c r="E187" t="s">
+      <c r="D191" t="s">
+        <v>25</v>
+      </c>
+      <c r="E191" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="7" t="s">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B189" s="7"/>
-      <c r="C189" s="7"/>
-      <c r="D189" s="7"/>
-      <c r="E189" s="7"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="7"/>
-      <c r="B190" s="7"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="7"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="6"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="4" t="s">
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="8"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="8"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="8"/>
+      <c r="D194" s="8"/>
+      <c r="E194" s="8"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="9"/>
+      <c r="B195" s="9"/>
+      <c r="C195" s="9"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B196" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C196" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D196" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E192" s="4" t="s">
+      <c r="E196" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>48</v>
       </c>
-      <c r="B193" t="s">
-        <v>20</v>
-      </c>
-      <c r="D193" t="s">
-        <v>24</v>
-      </c>
-      <c r="E193" t="s">
+      <c r="B197" t="s">
+        <v>20</v>
+      </c>
+      <c r="D197" t="s">
+        <v>24</v>
+      </c>
+      <c r="E197" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>71</v>
       </c>
-      <c r="B194" t="s">
-        <v>20</v>
-      </c>
-      <c r="D194" t="s">
-        <v>24</v>
-      </c>
-      <c r="E194" t="s">
+      <c r="B198" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198" t="s">
+        <v>24</v>
+      </c>
+      <c r="E198" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>120</v>
       </c>
-      <c r="B195" t="s">
-        <v>20</v>
-      </c>
-      <c r="D195" t="s">
-        <v>24</v>
-      </c>
-      <c r="E195" t="s">
+      <c r="B199" t="s">
+        <v>20</v>
+      </c>
+      <c r="D199" t="s">
+        <v>24</v>
+      </c>
+      <c r="E199" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>99</v>
       </c>
-      <c r="B196" t="s">
-        <v>21</v>
-      </c>
-      <c r="C196" s="1">
+      <c r="B200" t="s">
+        <v>21</v>
+      </c>
+      <c r="C200" s="1">
         <v>100</v>
       </c>
-      <c r="D196" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="7" t="s">
+      <c r="D200" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B198" s="7"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="7"/>
-      <c r="E198" s="7"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="7"/>
-      <c r="B199" s="7"/>
-      <c r="C199" s="7"/>
-      <c r="D199" s="7"/>
-      <c r="E199" s="7"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="6"/>
-      <c r="B200" s="6"/>
-      <c r="C200" s="6"/>
-      <c r="D200" s="6"/>
-      <c r="E200" s="6"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="4" t="s">
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="8"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="8"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="8"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="9"/>
+      <c r="B204" s="9"/>
+      <c r="C204" s="9"/>
+      <c r="D204" s="9"/>
+      <c r="E204" s="9"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B205" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C205" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D205" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E201" s="4" t="s">
+      <c r="E205" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>48</v>
-      </c>
-      <c r="B202" t="s">
-        <v>20</v>
-      </c>
-      <c r="D202" t="s">
-        <v>24</v>
-      </c>
-      <c r="E202" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>123</v>
-      </c>
-      <c r="B203" t="s">
-        <v>21</v>
-      </c>
-      <c r="C203" s="1">
-        <v>100</v>
-      </c>
-      <c r="D203" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>124</v>
-      </c>
-      <c r="B204" t="s">
-        <v>21</v>
-      </c>
-      <c r="C204" s="1">
-        <v>15</v>
-      </c>
-      <c r="D204" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>12</v>
-      </c>
-      <c r="B205" t="s">
-        <v>21</v>
-      </c>
-      <c r="C205" s="1">
-        <v>100</v>
-      </c>
-      <c r="D205" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="B206" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D206" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E206" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B207" t="s">
         <v>21</v>
       </c>
+      <c r="C207" s="1">
+        <v>100</v>
+      </c>
       <c r="D207" t="s">
-        <v>25</v>
-      </c>
-      <c r="E207" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
+        <v>124</v>
+      </c>
+      <c r="B208" t="s">
+        <v>21</v>
+      </c>
+      <c r="C208" s="1">
+        <v>15</v>
+      </c>
+      <c r="D208" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" t="s">
+        <v>21</v>
+      </c>
+      <c r="C209" s="1">
+        <v>100</v>
+      </c>
+      <c r="D209" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>126</v>
+      </c>
+      <c r="B210" t="s">
+        <v>21</v>
+      </c>
+      <c r="D210" t="s">
+        <v>25</v>
+      </c>
+      <c r="E210" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>127</v>
+      </c>
+      <c r="B211" t="s">
+        <v>21</v>
+      </c>
+      <c r="D211" t="s">
+        <v>25</v>
+      </c>
+      <c r="E211" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>128</v>
       </c>
-      <c r="B208" t="s">
-        <v>21</v>
-      </c>
-      <c r="D208" t="s">
-        <v>25</v>
-      </c>
-      <c r="E208" t="s">
+      <c r="B212" t="s">
+        <v>21</v>
+      </c>
+      <c r="D212" t="s">
+        <v>25</v>
+      </c>
+      <c r="E212" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>129</v>
       </c>
-      <c r="D209" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+      <c r="D213" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>130</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D214" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="A182:E183"/>
+    <mergeCell ref="A184:E184"/>
+    <mergeCell ref="A193:E194"/>
+    <mergeCell ref="A195:E195"/>
+    <mergeCell ref="A202:E203"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A63:E64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A167:E168"/>
+    <mergeCell ref="A91:E92"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A120:E121"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A133:E134"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A146:E147"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A156:E157"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A24:E25"/>
+    <mergeCell ref="A26:E27"/>
+    <mergeCell ref="A38:E39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A78:E79"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A5:E6"/>
     <mergeCell ref="A7:E7"/>
@@ -3350,32 +3426,6 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="E17:E19"/>
-    <mergeCell ref="A24:E25"/>
-    <mergeCell ref="A26:E27"/>
-    <mergeCell ref="A38:E39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A78:E79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A63:E64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A166:E167"/>
-    <mergeCell ref="A90:E91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A119:E120"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A132:E133"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="A145:E146"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="A155:E156"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A200:E200"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A178:E179"/>
-    <mergeCell ref="A180:E180"/>
-    <mergeCell ref="A189:E190"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A198:E199"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Database/DataBase.xlsx
+++ b/Database/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tatvasoft Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33811AFD-CADF-41E5-9395-4200C057346F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B7A5F8-5443-45B8-9D6F-7DD6A67E17DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="24" xr2:uid="{7D5CAFDD-3082-4A9E-BA90-A89ABFA73424}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="140">
   <si>
     <t>Notes Market Place</t>
   </si>
@@ -423,13 +423,62 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FOREIGN KEY relationship with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SellerNotes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">UserID who has created this record. </t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>We need to physically store the file at project root level under 
+"Members/{UserID}/{NoteID}/Attachements" folder  for each notes attachment user uploads with file name as {AttachmentID}_{timestamp} and over this column we need to store the file path information. on delete of attachments record, we can mark  a record as isactive =0. 
+Also maintain a validation that published/submitted  note atleast should have one note attachment.  restrict all the cases to prevent violation of this rule.</t>
+  </si>
+  <si>
+    <t>FilePath</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>NotesAttachment Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +511,14 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -525,17 +582,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -543,11 +594,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -866,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE93447-7304-498D-B996-051B3FA9F42B}">
-  <dimension ref="A1:E214"/>
+  <dimension ref="A1:E233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,45 +939,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -1064,33 +1121,33 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1135,36 +1192,36 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -1302,27 +1359,27 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
@@ -1616,27 +1673,27 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
@@ -1793,27 +1850,27 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
@@ -1945,27 +2002,27 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
@@ -2303,27 +2360,27 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
+      <c r="A120" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="13"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
@@ -2344,10 +2401,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B124" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="D124" t="s">
         <v>24</v>
@@ -2358,536 +2415,529 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B125" t="s">
-        <v>21</v>
-      </c>
-      <c r="C125" s="1">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="D125" t="s">
         <v>24</v>
+      </c>
+      <c r="E125" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B126" t="s">
         <v>21</v>
       </c>
       <c r="C126" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D126" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="A127" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>15</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B133" t="s">
         <v>23</v>
       </c>
-      <c r="D127" t="s">
-        <v>25</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="D133" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="5" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>16</v>
       </c>
-      <c r="B128" t="s">
-        <v>20</v>
-      </c>
-      <c r="D128" t="s">
-        <v>25</v>
-      </c>
-      <c r="E128" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="B134" t="s">
+        <v>132</v>
+      </c>
+      <c r="D134" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>17</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B135" t="s">
         <v>23</v>
       </c>
-      <c r="D129" t="s">
-        <v>25</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="D135" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>18</v>
       </c>
-      <c r="B130" t="s">
-        <v>20</v>
-      </c>
-      <c r="D130" t="s">
-        <v>25</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="B136" t="s">
+        <v>132</v>
+      </c>
+      <c r="D136" t="s">
+        <v>25</v>
+      </c>
+      <c r="E136" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>19</v>
-      </c>
-      <c r="B131" t="s">
-        <v>22</v>
-      </c>
-      <c r="D131" t="s">
-        <v>24</v>
-      </c>
-      <c r="E131" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="13"/>
-      <c r="B135" s="13"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="B137" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="D137" t="s">
         <v>24</v>
       </c>
       <c r="E137" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>93</v>
-      </c>
-      <c r="B138" t="s">
-        <v>21</v>
-      </c>
-      <c r="C138" s="1">
-        <v>20</v>
-      </c>
-      <c r="D138" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>38</v>
-      </c>
-      <c r="B139" t="s">
-        <v>21</v>
-      </c>
-      <c r="C139" s="1">
-        <v>200</v>
-      </c>
-      <c r="D139" t="s">
-        <v>24</v>
-      </c>
+      <c r="A139" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>15</v>
-      </c>
-      <c r="B140" t="s">
-        <v>23</v>
-      </c>
-      <c r="D140" t="s">
-        <v>25</v>
-      </c>
-      <c r="E140" t="s">
-        <v>31</v>
-      </c>
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B141" t="s">
-        <v>20</v>
-      </c>
-      <c r="D141" t="s">
-        <v>25</v>
-      </c>
-      <c r="E141" t="s">
-        <v>43</v>
-      </c>
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>17</v>
-      </c>
-      <c r="B142" t="s">
-        <v>23</v>
-      </c>
-      <c r="D142" t="s">
-        <v>25</v>
-      </c>
-      <c r="E142" t="s">
-        <v>33</v>
+      <c r="A142" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B143" t="s">
         <v>20</v>
       </c>
       <c r="D143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E143" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="B144" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C144" s="1">
+        <v>20</v>
       </c>
       <c r="D144" t="s">
         <v>24</v>
       </c>
-      <c r="E144" t="s">
-        <v>35</v>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>38</v>
+      </c>
+      <c r="B145" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" s="1">
+        <v>200</v>
+      </c>
+      <c r="D145" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
+      <c r="A146" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D146" t="s">
+        <v>25</v>
+      </c>
+      <c r="E146" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
+      <c r="A147" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" t="s">
+        <v>25</v>
+      </c>
+      <c r="E147" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="13"/>
-      <c r="B148" s="13"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
+      <c r="A148" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148" t="s">
+        <v>23</v>
+      </c>
+      <c r="D148" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>7</v>
+      <c r="A149" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" t="s">
+        <v>25</v>
+      </c>
+      <c r="E149" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D150" t="s">
         <v>24</v>
       </c>
       <c r="E150" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="7"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>78</v>
+      </c>
+      <c r="B156" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" t="s">
+        <v>24</v>
+      </c>
+      <c r="E156" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>71</v>
-      </c>
-      <c r="B151" t="s">
-        <v>20</v>
-      </c>
-      <c r="D151" t="s">
-        <v>24</v>
-      </c>
-      <c r="E151" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>97</v>
-      </c>
-      <c r="B152" t="s">
-        <v>20</v>
-      </c>
-      <c r="D152" t="s">
-        <v>24</v>
-      </c>
-      <c r="E152" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>99</v>
-      </c>
-      <c r="B153" t="s">
-        <v>21</v>
-      </c>
-      <c r="C153" s="1">
-        <v>100</v>
-      </c>
-      <c r="D153" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>93</v>
+      </c>
+      <c r="B157" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157" s="1">
+        <v>20</v>
+      </c>
+      <c r="D157" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>38</v>
+      </c>
+      <c r="B158" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" s="1">
+        <v>200</v>
+      </c>
+      <c r="D158" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>15</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B159" t="s">
         <v>23</v>
       </c>
-      <c r="D154" t="s">
-        <v>25</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="D159" t="s">
+        <v>25</v>
+      </c>
+      <c r="E159" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="8"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="13"/>
-      <c r="B158" s="13"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>48</v>
+      <c r="A160" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B160" t="s">
         <v>20</v>
       </c>
       <c r="D160" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E160" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B161" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D161" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E161" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B162" t="s">
         <v>20</v>
       </c>
       <c r="D162" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E162" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B163" t="s">
-        <v>20</v>
-      </c>
-      <c r="C163" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D163" t="s">
         <v>24</v>
       </c>
       <c r="E163" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>99</v>
-      </c>
-      <c r="B164" t="s">
-        <v>21</v>
-      </c>
-      <c r="C164" s="1">
-        <v>100</v>
-      </c>
-      <c r="D164" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>15</v>
-      </c>
-      <c r="B165" t="s">
-        <v>23</v>
-      </c>
-      <c r="D165" t="s">
-        <v>25</v>
-      </c>
-      <c r="E165" t="s">
-        <v>31</v>
-      </c>
+      <c r="A165" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="6"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
+      <c r="A167" s="7"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
+      <c r="A168" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
+      <c r="A169" t="s">
+        <v>48</v>
+      </c>
+      <c r="B169" t="s">
+        <v>20</v>
+      </c>
+      <c r="D169" t="s">
+        <v>24</v>
+      </c>
+      <c r="E169" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>7</v>
+      <c r="A170" t="s">
+        <v>71</v>
+      </c>
+      <c r="B170" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170" t="s">
+        <v>24</v>
+      </c>
+      <c r="E170" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B171" t="s">
         <v>20</v>
@@ -2896,409 +2946,411 @@
         <v>24</v>
       </c>
       <c r="E171" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B172" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C172" s="1">
+        <v>100</v>
       </c>
       <c r="D172" t="s">
-        <v>24</v>
-      </c>
-      <c r="E172" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B173" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D173" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>131</v>
-      </c>
-      <c r="B174" t="s">
-        <v>21</v>
-      </c>
-      <c r="D174" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E173" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>86</v>
-      </c>
-      <c r="B175" t="s">
-        <v>20</v>
-      </c>
-      <c r="D175" t="s">
-        <v>24</v>
-      </c>
+      <c r="A175" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>108</v>
-      </c>
-      <c r="B176" t="s">
-        <v>20</v>
-      </c>
-      <c r="D176" t="s">
-        <v>24</v>
-      </c>
-      <c r="E176" t="s">
-        <v>109</v>
-      </c>
+      <c r="A176" s="6"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>110</v>
-      </c>
-      <c r="B177" t="s">
-        <v>20</v>
-      </c>
-      <c r="D177" t="s">
-        <v>24</v>
-      </c>
-      <c r="E177" t="s">
-        <v>111</v>
-      </c>
+      <c r="A177" s="7"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>88</v>
-      </c>
-      <c r="B178" t="s">
-        <v>21</v>
-      </c>
-      <c r="D178" t="s">
-        <v>24</v>
-      </c>
-      <c r="E178" t="s">
-        <v>112</v>
+      <c r="A178" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B179" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E179" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B180" t="s">
+        <v>20</v>
+      </c>
+      <c r="D180" t="s">
+        <v>24</v>
+      </c>
+      <c r="E180" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>101</v>
+      </c>
+      <c r="B181" t="s">
+        <v>20</v>
+      </c>
+      <c r="D181" t="s">
+        <v>24</v>
+      </c>
+      <c r="E181" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>103</v>
+      </c>
+      <c r="B182" t="s">
+        <v>20</v>
+      </c>
+      <c r="D182" t="s">
+        <v>24</v>
+      </c>
+      <c r="E182" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>99</v>
+      </c>
+      <c r="B183" t="s">
+        <v>21</v>
+      </c>
+      <c r="C183" s="1">
+        <v>100</v>
+      </c>
+      <c r="D183" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>15</v>
+      </c>
+      <c r="B184" t="s">
         <v>23</v>
       </c>
-      <c r="D180" t="s">
-        <v>25</v>
-      </c>
-      <c r="E180" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="8"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="9"/>
-      <c r="B184" s="9"/>
-      <c r="C184" s="9"/>
-      <c r="D184" s="9"/>
-      <c r="E184" s="9"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="4" t="s">
+      <c r="D184" t="s">
+        <v>25</v>
+      </c>
+      <c r="E184" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="6"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B188" s="12"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C189" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D189" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E185" s="4" t="s">
+      <c r="E189" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>48</v>
-      </c>
-      <c r="B186" t="s">
-        <v>20</v>
-      </c>
-      <c r="D186" t="s">
-        <v>24</v>
-      </c>
-      <c r="E186" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>116</v>
-      </c>
-      <c r="B187" t="s">
-        <v>21</v>
-      </c>
-      <c r="C187" s="1">
-        <v>50</v>
-      </c>
-      <c r="D187" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>12</v>
-      </c>
-      <c r="B188" t="s">
-        <v>21</v>
-      </c>
-      <c r="C188" s="1">
-        <v>50</v>
-      </c>
-      <c r="D188" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>117</v>
-      </c>
-      <c r="B189" t="s">
-        <v>21</v>
-      </c>
-      <c r="C189" s="1">
-        <v>100</v>
-      </c>
-      <c r="D189" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B190" t="s">
-        <v>21</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D190" t="s">
         <v>24</v>
+      </c>
+      <c r="E190" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B191" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D191" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E191" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>72</v>
+      </c>
+      <c r="B192" t="s">
+        <v>21</v>
+      </c>
+      <c r="D192" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B193" s="8"/>
-      <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
+      <c r="A193" t="s">
+        <v>131</v>
+      </c>
+      <c r="B193" t="s">
+        <v>21</v>
+      </c>
+      <c r="D193" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="8"/>
-      <c r="B194" s="8"/>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
+      <c r="A194" t="s">
+        <v>86</v>
+      </c>
+      <c r="B194" t="s">
+        <v>20</v>
+      </c>
+      <c r="D194" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="9"/>
-      <c r="B195" s="9"/>
-      <c r="C195" s="9"/>
-      <c r="D195" s="9"/>
-      <c r="E195" s="9"/>
+      <c r="A195" t="s">
+        <v>108</v>
+      </c>
+      <c r="B195" t="s">
+        <v>20</v>
+      </c>
+      <c r="D195" t="s">
+        <v>24</v>
+      </c>
+      <c r="E195" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>7</v>
+      <c r="A196" t="s">
+        <v>110</v>
+      </c>
+      <c r="B196" t="s">
+        <v>20</v>
+      </c>
+      <c r="D196" t="s">
+        <v>24</v>
+      </c>
+      <c r="E196" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B197" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D197" t="s">
         <v>24</v>
       </c>
       <c r="E197" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B198" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D198" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E198" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="B199" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D199" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E199" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>99</v>
-      </c>
-      <c r="B200" t="s">
-        <v>21</v>
-      </c>
-      <c r="C200" s="1">
-        <v>100</v>
-      </c>
-      <c r="D200" t="s">
-        <v>24</v>
-      </c>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B202" s="8"/>
-      <c r="C202" s="8"/>
-      <c r="D202" s="8"/>
-      <c r="E202" s="8"/>
+      <c r="A202" s="6"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="8"/>
-      <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
-      <c r="D203" s="8"/>
-      <c r="E203" s="8"/>
+      <c r="A203" s="12"/>
+      <c r="B203" s="12"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="9"/>
-      <c r="B204" s="9"/>
-      <c r="C204" s="9"/>
-      <c r="D204" s="9"/>
-      <c r="E204" s="9"/>
+      <c r="A204" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>7</v>
+      <c r="A205" t="s">
+        <v>48</v>
+      </c>
+      <c r="B205" t="s">
+        <v>20</v>
+      </c>
+      <c r="D205" t="s">
+        <v>24</v>
+      </c>
+      <c r="E205" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="B206" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C206" s="1">
+        <v>50</v>
       </c>
       <c r="D206" t="s">
         <v>24</v>
-      </c>
-      <c r="E206" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="B207" t="s">
         <v>21</v>
       </c>
       <c r="C207" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D207" t="s">
         <v>24</v>
@@ -3306,13 +3358,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B208" t="s">
         <v>21</v>
       </c>
       <c r="C208" s="1">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D208" t="s">
         <v>24</v>
@@ -3320,13 +3372,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="B209" t="s">
         <v>21</v>
       </c>
-      <c r="C209" s="1">
-        <v>100</v>
+      <c r="C209" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D209" t="s">
         <v>24</v>
@@ -3334,85 +3386,291 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
+        <v>15</v>
+      </c>
+      <c r="B210" t="s">
+        <v>23</v>
+      </c>
+      <c r="D210" t="s">
+        <v>25</v>
+      </c>
+      <c r="E210" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="6"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="12"/>
+      <c r="B214" s="12"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>48</v>
+      </c>
+      <c r="B216" t="s">
+        <v>20</v>
+      </c>
+      <c r="D216" t="s">
+        <v>24</v>
+      </c>
+      <c r="E216" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>71</v>
+      </c>
+      <c r="B217" t="s">
+        <v>20</v>
+      </c>
+      <c r="D217" t="s">
+        <v>24</v>
+      </c>
+      <c r="E217" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>120</v>
+      </c>
+      <c r="B218" t="s">
+        <v>20</v>
+      </c>
+      <c r="D218" t="s">
+        <v>24</v>
+      </c>
+      <c r="E218" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>99</v>
+      </c>
+      <c r="B219" t="s">
+        <v>21</v>
+      </c>
+      <c r="C219" s="1">
+        <v>100</v>
+      </c>
+      <c r="D219" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="6"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="12"/>
+      <c r="B223" s="12"/>
+      <c r="C223" s="12"/>
+      <c r="D223" s="12"/>
+      <c r="E223" s="12"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>48</v>
+      </c>
+      <c r="B225" t="s">
+        <v>20</v>
+      </c>
+      <c r="D225" t="s">
+        <v>24</v>
+      </c>
+      <c r="E225" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>123</v>
+      </c>
+      <c r="B226" t="s">
+        <v>21</v>
+      </c>
+      <c r="C226" s="1">
+        <v>100</v>
+      </c>
+      <c r="D226" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>124</v>
+      </c>
+      <c r="B227" t="s">
+        <v>21</v>
+      </c>
+      <c r="C227" s="1">
+        <v>15</v>
+      </c>
+      <c r="D227" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>12</v>
+      </c>
+      <c r="B228" t="s">
+        <v>21</v>
+      </c>
+      <c r="C228" s="1">
+        <v>100</v>
+      </c>
+      <c r="D228" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>126</v>
       </c>
-      <c r="B210" t="s">
-        <v>21</v>
-      </c>
-      <c r="D210" t="s">
-        <v>25</v>
-      </c>
-      <c r="E210" t="s">
+      <c r="B229" t="s">
+        <v>21</v>
+      </c>
+      <c r="D229" t="s">
+        <v>25</v>
+      </c>
+      <c r="E229" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>127</v>
       </c>
-      <c r="B211" t="s">
-        <v>21</v>
-      </c>
-      <c r="D211" t="s">
-        <v>25</v>
-      </c>
-      <c r="E211" t="s">
+      <c r="B230" t="s">
+        <v>21</v>
+      </c>
+      <c r="D230" t="s">
+        <v>25</v>
+      </c>
+      <c r="E230" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>128</v>
       </c>
-      <c r="B212" t="s">
-        <v>21</v>
-      </c>
-      <c r="D212" t="s">
-        <v>25</v>
-      </c>
-      <c r="E212" t="s">
+      <c r="B231" t="s">
+        <v>21</v>
+      </c>
+      <c r="D231" t="s">
+        <v>25</v>
+      </c>
+      <c r="E231" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>129</v>
       </c>
-      <c r="D213" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+      <c r="D232" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>130</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D233" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A204:E204"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="A182:E183"/>
-    <mergeCell ref="A184:E184"/>
-    <mergeCell ref="A193:E194"/>
-    <mergeCell ref="A195:E195"/>
-    <mergeCell ref="A202:E203"/>
+  <mergeCells count="41">
+    <mergeCell ref="A223:E223"/>
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="A201:E202"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A212:E213"/>
+    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="A221:E222"/>
     <mergeCell ref="A80:E80"/>
     <mergeCell ref="A63:E64"/>
     <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A167:E168"/>
+    <mergeCell ref="A186:E187"/>
     <mergeCell ref="A91:E92"/>
     <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A120:E121"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A133:E134"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A146:E147"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="A156:E157"/>
-    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A139:E140"/>
+    <mergeCell ref="A141:E141"/>
+    <mergeCell ref="A152:E153"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="A165:E166"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A175:E176"/>
+    <mergeCell ref="A177:E177"/>
     <mergeCell ref="A24:E25"/>
     <mergeCell ref="A26:E27"/>
     <mergeCell ref="A38:E39"/>
@@ -3426,6 +3684,13 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="E17:E19"/>
+    <mergeCell ref="A120:E121"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A127:A132"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="C127:C132"/>
+    <mergeCell ref="D127:D132"/>
+    <mergeCell ref="E127:E132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Database/DataBase.xlsx
+++ b/Database/DataBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tatvasoft Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gohil\Desktop\New folder\NoteMarketPlaceHTML\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B7A5F8-5443-45B8-9D6F-7DD6A67E17DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C186D6-F1B3-4654-AAFF-0EF8086C9E6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="24" xr2:uid="{7D5CAFDD-3082-4A9E-BA90-A89ABFA73424}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="24" xr2:uid="{7D5CAFDD-3082-4A9E-BA90-A89ABFA73424}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="138">
   <si>
     <t>Notes Market Place</t>
   </si>
@@ -257,12 +257,6 @@
     <t>DisplayPicture</t>
   </si>
   <si>
-    <t>NotesAttachment</t>
-  </si>
-  <si>
-    <t>PDF File</t>
-  </si>
-  <si>
     <t>TypeID</t>
   </si>
   <si>
@@ -428,8 +422,28 @@
     <t>INT</t>
   </si>
   <si>
+    <t xml:space="preserve">UserID who has created this record. </t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>We need to physically store the file at project root level under 
+"Members/{UserID}/{NoteID}/Attachements" folder  for each notes attachment user uploads with file name as {AttachmentID}_{timestamp} and over this column we need to store the file path information. on delete of attachments record, we can mark  a record as isactive =0. 
+Also maintain a validation that published/submitted  note atleast should have one note attachment.  restrict all the cases to prevent violation of this rule.</t>
+  </si>
+  <si>
+    <t>FilePath</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>NotesAttachment Table</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">FOREIGN KEY relationship with </t>
+      <t>FOREIGN KEY relationship with</t>
     </r>
     <r>
       <rPr>
@@ -440,7 +454,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">SellerNotes </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SellerNotes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -452,26 +487,6 @@
       </rPr>
       <t>table.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">UserID who has created this record. </t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>We need to physically store the file at project root level under 
-"Members/{UserID}/{NoteID}/Attachements" folder  for each notes attachment user uploads with file name as {AttachmentID}_{timestamp} and over this column we need to store the file path information. on delete of attachments record, we can mark  a record as isactive =0. 
-Also maintain a validation that published/submitted  note atleast should have one note attachment.  restrict all the cases to prevent violation of this rule.</t>
-  </si>
-  <si>
-    <t>FilePath</t>
-  </si>
-  <si>
-    <t>FileName</t>
-  </si>
-  <si>
-    <t>NotesAttachment Table</t>
   </si>
 </sst>
 </file>
@@ -582,12 +597,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -600,11 +609,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -923,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE93447-7304-498D-B996-051B3FA9F42B}">
-  <dimension ref="A1:E233"/>
+  <dimension ref="A1:E232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="E193" sqref="E193"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -935,49 +950,49 @@
     <col min="2" max="2" width="21.21875" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="103.6640625" customWidth="1"/>
+    <col min="5" max="5" width="103.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -1121,33 +1136,33 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1192,36 +1207,36 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -1359,27 +1374,27 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
@@ -1673,27 +1688,27 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
@@ -1850,27 +1865,27 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
@@ -2002,27 +2017,27 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
@@ -2112,8 +2127,11 @@
       <c r="A100" t="s">
         <v>76</v>
       </c>
+      <c r="B100" t="s">
+        <v>20</v>
+      </c>
       <c r="D100" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E100" t="s">
         <v>77</v>
@@ -2129,58 +2147,58 @@
       <c r="D101" t="s">
         <v>25</v>
       </c>
-      <c r="E101" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B103" t="s">
-        <v>21</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E103" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C104" s="1">
+        <v>200</v>
       </c>
       <c r="D104" t="s">
         <v>25</v>
-      </c>
-      <c r="E104" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B105" t="s">
         <v>21</v>
       </c>
       <c r="C105" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D105" t="s">
         <v>25</v>
@@ -2188,7 +2206,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B106" t="s">
         <v>21</v>
@@ -2202,7 +2220,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B107" t="s">
         <v>21</v>
@@ -2216,24 +2234,21 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
-      </c>
-      <c r="C108" s="1">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D109" t="s">
         <v>24</v>
@@ -2241,24 +2256,27 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>86</v>
-      </c>
-      <c r="B110" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="D110" t="s">
         <v>24</v>
+      </c>
+      <c r="E110" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>86</v>
+      </c>
+      <c r="B111" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" t="s">
         <v>87</v>
-      </c>
-      <c r="D111" t="s">
-        <v>24</v>
-      </c>
-      <c r="E111" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -2266,7 +2284,7 @@
         <v>88</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D112" t="s">
         <v>24</v>
@@ -2277,355 +2295,355 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E113" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>15</v>
+      <c r="A114" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B114" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" t="s">
         <v>23</v>
       </c>
-      <c r="D114" t="s">
-        <v>25</v>
-      </c>
-      <c r="E114" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B115" t="s">
-        <v>20</v>
-      </c>
       <c r="D115" t="s">
         <v>25</v>
       </c>
       <c r="E115" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B116" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D116" t="s">
         <v>25</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B117" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>19</v>
-      </c>
-      <c r="B118" t="s">
-        <v>22</v>
-      </c>
-      <c r="D118" t="s">
-        <v>24</v>
-      </c>
-      <c r="E118" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="119" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+    </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
+      <c r="A122" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>7</v>
+      <c r="A123" t="s">
+        <v>48</v>
+      </c>
+      <c r="B123" t="s">
+        <v>130</v>
+      </c>
+      <c r="D123" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D124" t="s">
         <v>24</v>
       </c>
       <c r="E124" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>132</v>
+        <v>21</v>
+      </c>
+      <c r="C125" s="1">
+        <v>100</v>
       </c>
       <c r="D125" t="s">
         <v>24</v>
       </c>
-      <c r="E125" t="s">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>138</v>
-      </c>
-      <c r="B126" t="s">
-        <v>21</v>
-      </c>
-      <c r="C126" s="1">
-        <v>100</v>
-      </c>
-      <c r="D126" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>136</v>
-      </c>
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
+      <c r="A132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" t="s">
+        <v>25</v>
+      </c>
+      <c r="E132" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B133" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="D133" t="s">
         <v>25</v>
       </c>
       <c r="E133" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="D134" t="s">
         <v>25</v>
       </c>
       <c r="E134" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B135" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="D135" t="s">
         <v>25</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B136" t="s">
         <v>132</v>
       </c>
       <c r="D136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E136" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>19</v>
-      </c>
-      <c r="B137" t="s">
-        <v>135</v>
-      </c>
-      <c r="D137" t="s">
-        <v>24</v>
-      </c>
-      <c r="E137" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+    </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
+      <c r="A139" s="10"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
+      <c r="A140" s="13"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="7"/>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
+      <c r="A141" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>7</v>
+      <c r="A142" t="s">
+        <v>73</v>
+      </c>
+      <c r="B142" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B143" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" s="1">
         <v>20</v>
       </c>
       <c r="D143" t="s">
         <v>24</v>
-      </c>
-      <c r="E143" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="B144" t="s">
         <v>21</v>
       </c>
       <c r="C144" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="D144" t="s">
         <v>24</v>
@@ -2633,151 +2651,151 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>21</v>
-      </c>
-      <c r="C145" s="1">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="D145" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E145" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>15</v>
+      <c r="A146" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B146" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" t="s">
+        <v>25</v>
+      </c>
+      <c r="E146" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>17</v>
+      </c>
+      <c r="B147" t="s">
         <v>23</v>
       </c>
-      <c r="D146" t="s">
-        <v>25</v>
-      </c>
-      <c r="E146" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B147" t="s">
-        <v>20</v>
-      </c>
       <c r="D147" t="s">
         <v>25</v>
       </c>
       <c r="E147" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D148" t="s">
         <v>25</v>
       </c>
       <c r="E148" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D149" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E149" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>19</v>
-      </c>
-      <c r="B150" t="s">
-        <v>22</v>
-      </c>
-      <c r="D150" t="s">
-        <v>24</v>
-      </c>
-      <c r="E150" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+    </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
+      <c r="A153" s="13"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
+      <c r="A154" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>7</v>
+      <c r="A155" t="s">
+        <v>76</v>
+      </c>
+      <c r="B155" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" t="s">
+        <v>24</v>
+      </c>
+      <c r="E155" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B156" t="s">
+        <v>21</v>
+      </c>
+      <c r="C156" s="1">
         <v>20</v>
       </c>
       <c r="D156" t="s">
         <v>24</v>
-      </c>
-      <c r="E156" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="B157" t="s">
         <v>21</v>
       </c>
       <c r="C157" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="D157" t="s">
         <v>24</v>
@@ -2785,131 +2803,131 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B158" t="s">
-        <v>21</v>
-      </c>
-      <c r="C158" s="1">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="D158" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E158" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>15</v>
+      <c r="A159" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B159" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" t="s">
+        <v>25</v>
+      </c>
+      <c r="E159" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>17</v>
+      </c>
+      <c r="B160" t="s">
         <v>23</v>
       </c>
-      <c r="D159" t="s">
-        <v>25</v>
-      </c>
-      <c r="E159" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B160" t="s">
-        <v>20</v>
-      </c>
       <c r="D160" t="s">
         <v>25</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B161" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D161" t="s">
         <v>25</v>
       </c>
       <c r="E161" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B162" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D162" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E162" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>19</v>
-      </c>
-      <c r="B163" t="s">
-        <v>22</v>
-      </c>
-      <c r="D163" t="s">
-        <v>24</v>
-      </c>
-      <c r="E163" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+    </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="6"/>
+      <c r="A165" s="10"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="6"/>
-      <c r="B166" s="6"/>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
+      <c r="A166" s="13"/>
+      <c r="B166" s="13"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
+      <c r="A167" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>7</v>
+      <c r="A168" t="s">
+        <v>48</v>
+      </c>
+      <c r="B168" t="s">
+        <v>20</v>
+      </c>
+      <c r="D168" t="s">
+        <v>24</v>
+      </c>
+      <c r="E168" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B169" t="s">
         <v>20</v>
@@ -2918,12 +2936,12 @@
         <v>24</v>
       </c>
       <c r="E169" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B170" t="s">
         <v>20</v>
@@ -2940,86 +2958,86 @@
         <v>97</v>
       </c>
       <c r="B171" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C171" s="1">
+        <v>100</v>
       </c>
       <c r="D171" t="s">
-        <v>24</v>
-      </c>
-      <c r="E171" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="B172" t="s">
-        <v>21</v>
-      </c>
-      <c r="C172" s="1">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D172" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>15</v>
-      </c>
-      <c r="B173" t="s">
-        <v>23</v>
-      </c>
-      <c r="D173" t="s">
-        <v>25</v>
-      </c>
-      <c r="E173" t="s">
+      <c r="E172" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+    </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
+      <c r="A175" s="10"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="6"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
+      <c r="A176" s="13"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="7"/>
-      <c r="B177" s="7"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
-      <c r="E177" s="7"/>
+      <c r="A177" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>7</v>
+      <c r="A178" t="s">
+        <v>48</v>
+      </c>
+      <c r="B178" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178" t="s">
+        <v>24</v>
+      </c>
+      <c r="E178" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B179" t="s">
         <v>20</v>
@@ -3028,12 +3046,12 @@
         <v>24</v>
       </c>
       <c r="E179" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B180" t="s">
         <v>20</v>
@@ -3042,7 +3060,7 @@
         <v>24</v>
       </c>
       <c r="E180" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -3061,91 +3079,91 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B182" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C182" s="1">
+        <v>100</v>
       </c>
       <c r="D182" t="s">
-        <v>24</v>
-      </c>
-      <c r="E182" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="B183" t="s">
-        <v>21</v>
-      </c>
-      <c r="C183" s="1">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D183" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>15</v>
-      </c>
-      <c r="B184" t="s">
-        <v>23</v>
-      </c>
-      <c r="D184" t="s">
-        <v>25</v>
-      </c>
-      <c r="E184" t="s">
+      <c r="E183" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B185" s="10"/>
+      <c r="C185" s="10"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
+    </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="6" t="s">
+      <c r="A186" s="10"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="10"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>105</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="6"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B188" s="12"/>
-      <c r="C188" s="12"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>7</v>
+      <c r="B189" t="s">
+        <v>20</v>
+      </c>
+      <c r="D189" t="s">
+        <v>24</v>
+      </c>
+      <c r="E189" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B190" t="s">
         <v>20</v>
@@ -3154,26 +3172,23 @@
         <v>24</v>
       </c>
       <c r="E190" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B191" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D191" t="s">
         <v>24</v>
-      </c>
-      <c r="E191" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="B192" t="s">
         <v>21</v>
@@ -3184,10 +3199,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="B193" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D193" t="s">
         <v>24</v>
@@ -3195,13 +3210,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B194" t="s">
         <v>20</v>
       </c>
       <c r="D194" t="s">
         <v>24</v>
+      </c>
+      <c r="E194" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -3220,35 +3238,35 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>86</v>
+      </c>
+      <c r="B196" t="s">
+        <v>21</v>
+      </c>
+      <c r="D196" t="s">
+        <v>24</v>
+      </c>
+      <c r="E196" t="s">
         <v>110</v>
-      </c>
-      <c r="B196" t="s">
-        <v>20</v>
-      </c>
-      <c r="D196" t="s">
-        <v>24</v>
-      </c>
-      <c r="E196" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B197" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D197" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E197" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B198" t="s">
         <v>23</v>
@@ -3257,80 +3275,80 @@
         <v>25</v>
       </c>
       <c r="E198" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="10" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>17</v>
-      </c>
-      <c r="B199" t="s">
-        <v>23</v>
-      </c>
-      <c r="D199" t="s">
-        <v>25</v>
-      </c>
-      <c r="E199" t="s">
-        <v>114</v>
-      </c>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B201" s="6"/>
-      <c r="C201" s="6"/>
-      <c r="D201" s="6"/>
-      <c r="E201" s="6"/>
+      <c r="A201" s="10"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="6"/>
-      <c r="B202" s="6"/>
-      <c r="C202" s="6"/>
-      <c r="D202" s="6"/>
-      <c r="E202" s="6"/>
+      <c r="A202" s="11"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="12"/>
-      <c r="B203" s="12"/>
-      <c r="C203" s="12"/>
-      <c r="D203" s="12"/>
-      <c r="E203" s="12"/>
+      <c r="A203" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>7</v>
+      <c r="A204" t="s">
+        <v>48</v>
+      </c>
+      <c r="B204" t="s">
+        <v>20</v>
+      </c>
+      <c r="D204" t="s">
+        <v>24</v>
+      </c>
+      <c r="E204" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="B205" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C205" s="1">
+        <v>50</v>
       </c>
       <c r="D205" t="s">
         <v>24</v>
-      </c>
-      <c r="E205" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="B206" t="s">
         <v>21</v>
@@ -3344,13 +3362,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="B207" t="s">
         <v>21</v>
       </c>
       <c r="C207" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D207" t="s">
         <v>24</v>
@@ -3358,13 +3376,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B208" t="s">
         <v>21</v>
       </c>
-      <c r="C208" s="1">
-        <v>100</v>
+      <c r="C208" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D208" t="s">
         <v>24</v>
@@ -3372,75 +3390,75 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>21</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D209" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>15</v>
-      </c>
-      <c r="B210" t="s">
-        <v>23</v>
-      </c>
-      <c r="D210" t="s">
-        <v>25</v>
-      </c>
-      <c r="E210" t="s">
-        <v>118</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E209" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B211" s="10"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="6"/>
-      <c r="D212" s="6"/>
-      <c r="E212" s="6"/>
+      <c r="A212" s="10"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="10"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="6"/>
-      <c r="B213" s="6"/>
-      <c r="C213" s="6"/>
-      <c r="D213" s="6"/>
-      <c r="E213" s="6"/>
+      <c r="A213" s="11"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="12"/>
-      <c r="B214" s="12"/>
-      <c r="C214" s="12"/>
-      <c r="D214" s="12"/>
-      <c r="E214" s="12"/>
+      <c r="A214" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>7</v>
+      <c r="A215" t="s">
+        <v>48</v>
+      </c>
+      <c r="B215" t="s">
+        <v>20</v>
+      </c>
+      <c r="D215" t="s">
+        <v>24</v>
+      </c>
+      <c r="E215" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B216" t="s">
         <v>20</v>
@@ -3449,12 +3467,12 @@
         <v>24</v>
       </c>
       <c r="E216" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="B217" t="s">
         <v>20</v>
@@ -3463,100 +3481,100 @@
         <v>24</v>
       </c>
       <c r="E217" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
+        <v>97</v>
+      </c>
+      <c r="B218" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218" s="1">
+        <v>100</v>
+      </c>
+      <c r="D218" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B218" t="s">
-        <v>20</v>
-      </c>
-      <c r="D218" t="s">
-        <v>24</v>
-      </c>
-      <c r="E218" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>99</v>
-      </c>
-      <c r="B219" t="s">
-        <v>21</v>
-      </c>
-      <c r="C219" s="1">
-        <v>100</v>
-      </c>
-      <c r="D219" t="s">
-        <v>24</v>
-      </c>
+      <c r="B220" s="10"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="10"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B221" s="6"/>
-      <c r="C221" s="6"/>
-      <c r="D221" s="6"/>
-      <c r="E221" s="6"/>
+      <c r="A221" s="10"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="6"/>
-      <c r="B222" s="6"/>
-      <c r="C222" s="6"/>
-      <c r="D222" s="6"/>
-      <c r="E222" s="6"/>
+      <c r="A222" s="11"/>
+      <c r="B222" s="11"/>
+      <c r="C222" s="11"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="12"/>
-      <c r="B223" s="12"/>
-      <c r="C223" s="12"/>
-      <c r="D223" s="12"/>
-      <c r="E223" s="12"/>
+      <c r="A223" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>7</v>
+      <c r="A224" t="s">
+        <v>48</v>
+      </c>
+      <c r="B224" t="s">
+        <v>20</v>
+      </c>
+      <c r="D224" t="s">
+        <v>24</v>
+      </c>
+      <c r="E224" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="B225" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C225" s="1">
+        <v>100</v>
       </c>
       <c r="D225" t="s">
         <v>24</v>
-      </c>
-      <c r="E225" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B226" t="s">
         <v>21</v>
       </c>
       <c r="C226" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D226" t="s">
         <v>24</v>
@@ -3564,13 +3582,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="B227" t="s">
         <v>21</v>
       </c>
       <c r="C227" s="1">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D227" t="s">
         <v>24</v>
@@ -3578,21 +3596,21 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="B228" t="s">
         <v>21</v>
       </c>
-      <c r="C228" s="1">
-        <v>100</v>
-      </c>
       <c r="D228" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E228" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B229" t="s">
         <v>21</v>
@@ -3601,12 +3619,12 @@
         <v>25</v>
       </c>
       <c r="E229" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B230" t="s">
         <v>21</v>
@@ -3615,62 +3633,50 @@
         <v>25</v>
       </c>
       <c r="E230" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>128</v>
-      </c>
-      <c r="B231" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="D231" t="s">
-        <v>25</v>
-      </c>
-      <c r="E231" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D232" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>130</v>
-      </c>
-      <c r="D233" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A223:E223"/>
-    <mergeCell ref="A188:E188"/>
-    <mergeCell ref="A201:E202"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A212:E213"/>
-    <mergeCell ref="A214:E214"/>
-    <mergeCell ref="A221:E222"/>
+    <mergeCell ref="A222:E222"/>
+    <mergeCell ref="A187:E187"/>
+    <mergeCell ref="A200:E201"/>
+    <mergeCell ref="A202:E202"/>
+    <mergeCell ref="A211:E212"/>
+    <mergeCell ref="A213:E213"/>
+    <mergeCell ref="A220:E221"/>
     <mergeCell ref="A80:E80"/>
     <mergeCell ref="A63:E64"/>
     <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A186:E187"/>
+    <mergeCell ref="A185:E186"/>
     <mergeCell ref="A91:E92"/>
     <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A139:E140"/>
-    <mergeCell ref="A141:E141"/>
-    <mergeCell ref="A152:E153"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="A165:E166"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A175:E176"/>
-    <mergeCell ref="A177:E177"/>
+    <mergeCell ref="A138:E139"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A151:E152"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="A164:E165"/>
+    <mergeCell ref="A166:E166"/>
+    <mergeCell ref="A174:E175"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A119:E120"/>
+    <mergeCell ref="A121:E121"/>
     <mergeCell ref="A24:E25"/>
     <mergeCell ref="A26:E27"/>
     <mergeCell ref="A38:E39"/>
@@ -3684,13 +3690,11 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="E17:E19"/>
-    <mergeCell ref="A120:E121"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A127:A132"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="C127:C132"/>
-    <mergeCell ref="D127:D132"/>
-    <mergeCell ref="E127:E132"/>
+    <mergeCell ref="A126:A131"/>
+    <mergeCell ref="B126:B131"/>
+    <mergeCell ref="C126:C131"/>
+    <mergeCell ref="D126:D131"/>
+    <mergeCell ref="E126:E131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
